--- a/Hungary data.xlsx
+++ b/Hungary data.xlsx
@@ -1,23 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\brent\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\brent\Desktop\beyond the comfort\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D9EB2E1-5E0B-48B3-9E19-658028854F2E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{776812B8-1EDB-459D-A8E4-45395299BA59}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{078ED43B-3372-49D2-BCFF-4A82682EBFC7}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="21840" windowHeight="13740" activeTab="3" xr2:uid="{078ED43B-3372-49D2-BCFF-4A82682EBFC7}"/>
   </bookViews>
   <sheets>
     <sheet name="Timeline" sheetId="1" r:id="rId1"/>
     <sheet name="Setup" sheetId="2" r:id="rId2"/>
     <sheet name="Matrices" sheetId="3" r:id="rId3"/>
-    <sheet name="Vaccination data" sheetId="4" r:id="rId4"/>
-    <sheet name="Vaccine rollout timeline" sheetId="5" r:id="rId5"/>
+    <sheet name="Hospitalization numbers" sheetId="6" r:id="rId4"/>
+    <sheet name="Vaccination data" sheetId="4" r:id="rId5"/>
+    <sheet name="Vaccine rollout timeline" sheetId="5" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1162" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1165" uniqueCount="64">
   <si>
     <t>Date</t>
   </si>
@@ -234,6 +235,12 @@
   <si>
     <t>Vaccination of 12-16 year olds begins</t>
   </si>
+  <si>
+    <t>Patients in hospitals</t>
+  </si>
+  <si>
+    <t>On ventilator</t>
+  </si>
 </sst>
 </file>
 
@@ -242,7 +249,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd;@"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -273,6 +280,12 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -282,7 +295,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -299,13 +312,28 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFCCCCCC"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -331,6 +359,18 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -12123,10 +12163,5190 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F8513B31-34F4-428D-8B26-F9F1418CB518}">
+  <dimension ref="A1:C476"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B282" sqref="B282"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="14.21875" customWidth="1"/>
+    <col min="2" max="3" width="14.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="27" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="17" t="s">
+        <v>62</v>
+      </c>
+      <c r="C1" s="17" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="16">
+        <v>43937</v>
+      </c>
+      <c r="B2" s="14">
+        <v>729</v>
+      </c>
+      <c r="C2" s="14">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="16">
+        <v>43938</v>
+      </c>
+      <c r="B3" s="14">
+        <v>847</v>
+      </c>
+      <c r="C3" s="14">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="16">
+        <v>43939</v>
+      </c>
+      <c r="B4" s="14">
+        <v>829</v>
+      </c>
+      <c r="C4" s="14">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="16">
+        <v>43940</v>
+      </c>
+      <c r="B5" s="14">
+        <v>784</v>
+      </c>
+      <c r="C5" s="14">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="16">
+        <v>43941</v>
+      </c>
+      <c r="B6" s="14">
+        <v>811</v>
+      </c>
+      <c r="C6" s="14">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="16">
+        <v>43942</v>
+      </c>
+      <c r="B7" s="14">
+        <v>842</v>
+      </c>
+      <c r="C7" s="14">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="16">
+        <v>43943</v>
+      </c>
+      <c r="B8" s="14">
+        <v>825</v>
+      </c>
+      <c r="C8" s="14">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="16">
+        <v>43944</v>
+      </c>
+      <c r="B9" s="14">
+        <v>850</v>
+      </c>
+      <c r="C9" s="14">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="16">
+        <v>43945</v>
+      </c>
+      <c r="B10" s="14">
+        <v>877</v>
+      </c>
+      <c r="C10" s="14">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="16">
+        <v>43946</v>
+      </c>
+      <c r="B11" s="14">
+        <v>899</v>
+      </c>
+      <c r="C11" s="14">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="16">
+        <v>43947</v>
+      </c>
+      <c r="B12" s="14">
+        <v>927</v>
+      </c>
+      <c r="C12" s="14">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="16">
+        <v>43948</v>
+      </c>
+      <c r="B13" s="14">
+        <v>931</v>
+      </c>
+      <c r="C13" s="14">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="16">
+        <v>43949</v>
+      </c>
+      <c r="B14" s="14">
+        <v>946</v>
+      </c>
+      <c r="C14" s="14">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="16">
+        <v>43950</v>
+      </c>
+      <c r="B15" s="14">
+        <v>983</v>
+      </c>
+      <c r="C15" s="14">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="16">
+        <v>43951</v>
+      </c>
+      <c r="B16" s="14">
+        <v>998</v>
+      </c>
+      <c r="C16" s="14">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="16">
+        <v>43952</v>
+      </c>
+      <c r="B17" s="14">
+        <v>983</v>
+      </c>
+      <c r="C17" s="14">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="16">
+        <v>43953</v>
+      </c>
+      <c r="B18" s="14">
+        <v>1008</v>
+      </c>
+      <c r="C18" s="14">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="16">
+        <v>43954</v>
+      </c>
+      <c r="B19" s="14">
+        <v>1005</v>
+      </c>
+      <c r="C19" s="14">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="16">
+        <v>43955</v>
+      </c>
+      <c r="B20" s="14">
+        <v>1027</v>
+      </c>
+      <c r="C20" s="14">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="16">
+        <v>43956</v>
+      </c>
+      <c r="B21" s="14">
+        <v>982</v>
+      </c>
+      <c r="C21" s="14">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="16">
+        <v>43957</v>
+      </c>
+      <c r="B22" s="14">
+        <v>964</v>
+      </c>
+      <c r="C22" s="14">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A23" s="16">
+        <v>43958</v>
+      </c>
+      <c r="B23" s="14">
+        <v>968</v>
+      </c>
+      <c r="C23" s="14">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="16">
+        <v>43959</v>
+      </c>
+      <c r="B24" s="14">
+        <v>891</v>
+      </c>
+      <c r="C24" s="15"/>
+    </row>
+    <row r="25" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A25" s="16">
+        <v>43960</v>
+      </c>
+      <c r="B25" s="14">
+        <v>875</v>
+      </c>
+      <c r="C25" s="15"/>
+    </row>
+    <row r="26" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A26" s="16">
+        <v>43961</v>
+      </c>
+      <c r="B26" s="14">
+        <v>812</v>
+      </c>
+      <c r="C26" s="14">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A27" s="16">
+        <v>43962</v>
+      </c>
+      <c r="B27" s="14">
+        <v>782</v>
+      </c>
+      <c r="C27" s="14">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A28" s="16">
+        <v>43963</v>
+      </c>
+      <c r="B28" s="14">
+        <v>746</v>
+      </c>
+      <c r="C28" s="14">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A29" s="16">
+        <v>43964</v>
+      </c>
+      <c r="B29" s="14">
+        <v>688</v>
+      </c>
+      <c r="C29" s="14">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A30" s="16">
+        <v>43965</v>
+      </c>
+      <c r="B30" s="14">
+        <v>658</v>
+      </c>
+      <c r="C30" s="14">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A31" s="16">
+        <v>43966</v>
+      </c>
+      <c r="B31" s="14">
+        <v>614</v>
+      </c>
+      <c r="C31" s="14">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A32" s="16">
+        <v>43967</v>
+      </c>
+      <c r="B32" s="14">
+        <v>570</v>
+      </c>
+      <c r="C32" s="14">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A33" s="16">
+        <v>43968</v>
+      </c>
+      <c r="B33" s="14">
+        <v>562</v>
+      </c>
+      <c r="C33" s="14">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A34" s="16">
+        <v>43969</v>
+      </c>
+      <c r="B34" s="14">
+        <v>568</v>
+      </c>
+      <c r="C34" s="14">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A35" s="16">
+        <v>43970</v>
+      </c>
+      <c r="B35" s="15"/>
+      <c r="C35" s="15"/>
+    </row>
+    <row r="36" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A36" s="16">
+        <v>43971</v>
+      </c>
+      <c r="B36" s="14">
+        <v>539</v>
+      </c>
+      <c r="C36" s="14">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A37" s="16">
+        <v>43972</v>
+      </c>
+      <c r="B37" s="14">
+        <v>510</v>
+      </c>
+      <c r="C37" s="14">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A38" s="16">
+        <v>43973</v>
+      </c>
+      <c r="B38" s="14">
+        <v>483</v>
+      </c>
+      <c r="C38" s="14">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A39" s="16">
+        <v>43974</v>
+      </c>
+      <c r="B39" s="14">
+        <v>462</v>
+      </c>
+      <c r="C39" s="14">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A40" s="16">
+        <v>43975</v>
+      </c>
+      <c r="B40" s="14">
+        <v>442</v>
+      </c>
+      <c r="C40" s="14">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A41" s="16">
+        <v>43976</v>
+      </c>
+      <c r="B41" s="15"/>
+      <c r="C41" s="15"/>
+    </row>
+    <row r="42" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A42" s="16">
+        <v>43977</v>
+      </c>
+      <c r="B42" s="14">
+        <v>436</v>
+      </c>
+      <c r="C42" s="14">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A43" s="16">
+        <v>43978</v>
+      </c>
+      <c r="B43" s="14">
+        <v>430</v>
+      </c>
+      <c r="C43" s="14">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A44" s="16">
+        <v>43979</v>
+      </c>
+      <c r="B44" s="14">
+        <v>404</v>
+      </c>
+      <c r="C44" s="14">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A45" s="16">
+        <v>43980</v>
+      </c>
+      <c r="B45" s="14">
+        <v>384</v>
+      </c>
+      <c r="C45" s="14">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A46" s="16">
+        <v>43981</v>
+      </c>
+      <c r="B46" s="14">
+        <v>414</v>
+      </c>
+      <c r="C46" s="14">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A47" s="16">
+        <v>43982</v>
+      </c>
+      <c r="B47" s="14">
+        <v>419</v>
+      </c>
+      <c r="C47" s="14">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A48" s="16">
+        <v>43983</v>
+      </c>
+      <c r="B48" s="14">
+        <v>417</v>
+      </c>
+      <c r="C48" s="14">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A49" s="16">
+        <v>43984</v>
+      </c>
+      <c r="B49" s="14">
+        <v>427</v>
+      </c>
+      <c r="C49" s="14">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A50" s="16">
+        <v>43985</v>
+      </c>
+      <c r="B50" s="14">
+        <v>414</v>
+      </c>
+      <c r="C50" s="14">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A51" s="16">
+        <v>43986</v>
+      </c>
+      <c r="B51" s="14">
+        <v>406</v>
+      </c>
+      <c r="C51" s="14">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A52" s="16">
+        <v>43987</v>
+      </c>
+      <c r="B52" s="14">
+        <v>397</v>
+      </c>
+      <c r="C52" s="14">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A53" s="16">
+        <v>43988</v>
+      </c>
+      <c r="B53" s="14">
+        <v>387</v>
+      </c>
+      <c r="C53" s="14">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A54" s="16">
+        <v>43989</v>
+      </c>
+      <c r="B54" s="14">
+        <v>386</v>
+      </c>
+      <c r="C54" s="14">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A55" s="16">
+        <v>43990</v>
+      </c>
+      <c r="B55" s="14">
+        <v>385</v>
+      </c>
+      <c r="C55" s="14">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A56" s="16">
+        <v>43991</v>
+      </c>
+      <c r="B56" s="14">
+        <v>365</v>
+      </c>
+      <c r="C56" s="14">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A57" s="16">
+        <v>43992</v>
+      </c>
+      <c r="B57" s="14">
+        <v>344</v>
+      </c>
+      <c r="C57" s="14">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A58" s="16">
+        <v>43993</v>
+      </c>
+      <c r="B58" s="14">
+        <v>321</v>
+      </c>
+      <c r="C58" s="14">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A59" s="16">
+        <v>43994</v>
+      </c>
+      <c r="B59" s="14">
+        <v>290</v>
+      </c>
+      <c r="C59" s="14">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A60" s="16">
+        <v>43995</v>
+      </c>
+      <c r="B60" s="14">
+        <v>283</v>
+      </c>
+      <c r="C60" s="14">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A61" s="16">
+        <v>43996</v>
+      </c>
+      <c r="B61" s="14">
+        <v>275</v>
+      </c>
+      <c r="C61" s="14">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A62" s="16">
+        <v>43997</v>
+      </c>
+      <c r="B62" s="14">
+        <v>275</v>
+      </c>
+      <c r="C62" s="14">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A63" s="16">
+        <v>43998</v>
+      </c>
+      <c r="B63" s="14">
+        <v>255</v>
+      </c>
+      <c r="C63" s="14">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A64" s="16">
+        <v>43999</v>
+      </c>
+      <c r="B64" s="14">
+        <v>210</v>
+      </c>
+      <c r="C64" s="14">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A65" s="16">
+        <v>44000</v>
+      </c>
+      <c r="B65" s="14">
+        <v>199</v>
+      </c>
+      <c r="C65" s="14">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A66" s="16">
+        <v>44001</v>
+      </c>
+      <c r="B66" s="14">
+        <v>192</v>
+      </c>
+      <c r="C66" s="14">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A67" s="16">
+        <v>44002</v>
+      </c>
+      <c r="B67" s="14">
+        <v>186</v>
+      </c>
+      <c r="C67" s="14">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A68" s="16">
+        <v>44003</v>
+      </c>
+      <c r="B68" s="14">
+        <v>185</v>
+      </c>
+      <c r="C68" s="14">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A69" s="16">
+        <v>44004</v>
+      </c>
+      <c r="B69" s="14">
+        <v>184</v>
+      </c>
+      <c r="C69" s="14">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A70" s="16">
+        <v>44005</v>
+      </c>
+      <c r="B70" s="14">
+        <v>183</v>
+      </c>
+      <c r="C70" s="14">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A71" s="16">
+        <v>44006</v>
+      </c>
+      <c r="B71" s="14">
+        <v>183</v>
+      </c>
+      <c r="C71" s="14">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A72" s="16">
+        <v>44007</v>
+      </c>
+      <c r="B72" s="14">
+        <v>182</v>
+      </c>
+      <c r="C72" s="14">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A73" s="16">
+        <v>44008</v>
+      </c>
+      <c r="B73" s="14">
+        <v>179</v>
+      </c>
+      <c r="C73" s="14">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A74" s="16">
+        <v>44009</v>
+      </c>
+      <c r="B74" s="14">
+        <v>174</v>
+      </c>
+      <c r="C74" s="14">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A75" s="16">
+        <v>44010</v>
+      </c>
+      <c r="B75" s="14">
+        <v>172</v>
+      </c>
+      <c r="C75" s="14">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A76" s="16">
+        <v>44011</v>
+      </c>
+      <c r="B76" s="14">
+        <v>170</v>
+      </c>
+      <c r="C76" s="14">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A77" s="16">
+        <v>44012</v>
+      </c>
+      <c r="B77" s="14">
+        <v>169</v>
+      </c>
+      <c r="C77" s="14">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A78" s="16">
+        <v>44013</v>
+      </c>
+      <c r="B78" s="14">
+        <v>169</v>
+      </c>
+      <c r="C78" s="14">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A79" s="16">
+        <v>44014</v>
+      </c>
+      <c r="B79" s="14">
+        <v>157</v>
+      </c>
+      <c r="C79" s="14">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A80" s="16">
+        <v>44015</v>
+      </c>
+      <c r="B80" s="14">
+        <v>150</v>
+      </c>
+      <c r="C80" s="14">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A81" s="16">
+        <v>44016</v>
+      </c>
+      <c r="B81" s="14">
+        <v>140</v>
+      </c>
+      <c r="C81" s="14">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A82" s="16">
+        <v>44017</v>
+      </c>
+      <c r="B82" s="14">
+        <v>144</v>
+      </c>
+      <c r="C82" s="14">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A83" s="16">
+        <v>44018</v>
+      </c>
+      <c r="B83" s="14">
+        <v>140</v>
+      </c>
+      <c r="C83" s="14">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A84" s="16">
+        <v>44019</v>
+      </c>
+      <c r="B84" s="14">
+        <v>142</v>
+      </c>
+      <c r="C84" s="14">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A85" s="16">
+        <v>44020</v>
+      </c>
+      <c r="B85" s="14">
+        <v>132</v>
+      </c>
+      <c r="C85" s="14">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A86" s="16">
+        <v>44021</v>
+      </c>
+      <c r="B86" s="14">
+        <v>131</v>
+      </c>
+      <c r="C86" s="14">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A87" s="16">
+        <v>44022</v>
+      </c>
+      <c r="B87" s="14">
+        <v>133</v>
+      </c>
+      <c r="C87" s="14">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A88" s="16">
+        <v>44023</v>
+      </c>
+      <c r="B88" s="14">
+        <v>129</v>
+      </c>
+      <c r="C88" s="14">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A89" s="16">
+        <v>44024</v>
+      </c>
+      <c r="B89" s="14">
+        <v>128</v>
+      </c>
+      <c r="C89" s="14">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A90" s="16">
+        <v>44025</v>
+      </c>
+      <c r="B90" s="14">
+        <v>127</v>
+      </c>
+      <c r="C90" s="14">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A91" s="16">
+        <v>44026</v>
+      </c>
+      <c r="B91" s="14">
+        <v>131</v>
+      </c>
+      <c r="C91" s="14">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A92" s="16">
+        <v>44027</v>
+      </c>
+      <c r="B92" s="14">
+        <v>125</v>
+      </c>
+      <c r="C92" s="14">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A93" s="16">
+        <v>44028</v>
+      </c>
+      <c r="B93" s="14">
+        <v>109</v>
+      </c>
+      <c r="C93" s="14">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A94" s="16">
+        <v>44029</v>
+      </c>
+      <c r="B94" s="14">
+        <v>83</v>
+      </c>
+      <c r="C94" s="14">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A95" s="16">
+        <v>44030</v>
+      </c>
+      <c r="B95" s="14">
+        <v>83</v>
+      </c>
+      <c r="C95" s="14">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A96" s="16">
+        <v>44031</v>
+      </c>
+      <c r="B96" s="14">
+        <v>82</v>
+      </c>
+      <c r="C96" s="14">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A97" s="16">
+        <v>44032</v>
+      </c>
+      <c r="B97" s="14">
+        <v>83</v>
+      </c>
+      <c r="C97" s="14">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A98" s="16">
+        <v>44033</v>
+      </c>
+      <c r="B98" s="14">
+        <v>78</v>
+      </c>
+      <c r="C98" s="14">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A99" s="16">
+        <v>44034</v>
+      </c>
+      <c r="B99" s="14">
+        <v>78</v>
+      </c>
+      <c r="C99" s="14">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A100" s="16">
+        <v>44035</v>
+      </c>
+      <c r="B100" s="14">
+        <v>76</v>
+      </c>
+      <c r="C100" s="14">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A101" s="16">
+        <v>44036</v>
+      </c>
+      <c r="B101" s="14">
+        <v>70</v>
+      </c>
+      <c r="C101" s="14">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A102" s="16">
+        <v>44037</v>
+      </c>
+      <c r="B102" s="14">
+        <v>68</v>
+      </c>
+      <c r="C102" s="14">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A103" s="16">
+        <v>44038</v>
+      </c>
+      <c r="B103" s="14">
+        <v>69</v>
+      </c>
+      <c r="C103" s="14">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A104" s="16">
+        <v>44039</v>
+      </c>
+      <c r="B104" s="14">
+        <v>71</v>
+      </c>
+      <c r="C104" s="14">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A105" s="16">
+        <v>44040</v>
+      </c>
+      <c r="B105" s="14">
+        <v>76</v>
+      </c>
+      <c r="C105" s="14">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A106" s="16">
+        <v>44041</v>
+      </c>
+      <c r="B106" s="14">
+        <v>76</v>
+      </c>
+      <c r="C106" s="14">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A107" s="16">
+        <v>44042</v>
+      </c>
+      <c r="B107" s="14">
+        <v>76</v>
+      </c>
+      <c r="C107" s="14">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A108" s="16">
+        <v>44043</v>
+      </c>
+      <c r="B108" s="14">
+        <v>73</v>
+      </c>
+      <c r="C108" s="14">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A109" s="16">
+        <v>44044</v>
+      </c>
+      <c r="B109" s="14">
+        <v>73</v>
+      </c>
+      <c r="C109" s="14">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A110" s="16">
+        <v>44045</v>
+      </c>
+      <c r="B110" s="14">
+        <v>71</v>
+      </c>
+      <c r="C110" s="14">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A111" s="16">
+        <v>44046</v>
+      </c>
+      <c r="B111" s="14">
+        <v>74</v>
+      </c>
+      <c r="C111" s="14">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A112" s="16">
+        <v>44047</v>
+      </c>
+      <c r="B112" s="14">
+        <v>74</v>
+      </c>
+      <c r="C112" s="14">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A113" s="16">
+        <v>44048</v>
+      </c>
+      <c r="B113" s="14">
+        <v>72</v>
+      </c>
+      <c r="C113" s="14">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A114" s="16">
+        <v>44049</v>
+      </c>
+      <c r="B114" s="14">
+        <v>74</v>
+      </c>
+      <c r="C114" s="14">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A115" s="16">
+        <v>44050</v>
+      </c>
+      <c r="B115" s="14">
+        <v>72</v>
+      </c>
+      <c r="C115" s="14">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A116" s="16">
+        <v>44051</v>
+      </c>
+      <c r="B116" s="14">
+        <v>69</v>
+      </c>
+      <c r="C116" s="14">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A117" s="16">
+        <v>44052</v>
+      </c>
+      <c r="B117" s="14">
+        <v>73</v>
+      </c>
+      <c r="C117" s="14">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A118" s="16">
+        <v>44053</v>
+      </c>
+      <c r="B118" s="14">
+        <v>61</v>
+      </c>
+      <c r="C118" s="14">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A119" s="16">
+        <v>44054</v>
+      </c>
+      <c r="B119" s="14">
+        <v>62</v>
+      </c>
+      <c r="C119" s="14">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A120" s="16">
+        <v>44055</v>
+      </c>
+      <c r="B120" s="14">
+        <v>64</v>
+      </c>
+      <c r="C120" s="14">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A121" s="16">
+        <v>44056</v>
+      </c>
+      <c r="B121" s="14">
+        <v>66</v>
+      </c>
+      <c r="C121" s="14">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A122" s="16">
+        <v>44057</v>
+      </c>
+      <c r="B122" s="14">
+        <v>64</v>
+      </c>
+      <c r="C122" s="14">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A123" s="16">
+        <v>44058</v>
+      </c>
+      <c r="B123" s="14">
+        <v>63</v>
+      </c>
+      <c r="C123" s="14">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A124" s="16">
+        <v>44059</v>
+      </c>
+      <c r="B124" s="14">
+        <v>62</v>
+      </c>
+      <c r="C124" s="14">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A125" s="16">
+        <v>44060</v>
+      </c>
+      <c r="B125" s="14">
+        <v>62</v>
+      </c>
+      <c r="C125" s="14">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A126" s="16">
+        <v>44061</v>
+      </c>
+      <c r="B126" s="14">
+        <v>60</v>
+      </c>
+      <c r="C126" s="14">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A127" s="16">
+        <v>44062</v>
+      </c>
+      <c r="B127" s="14">
+        <v>57</v>
+      </c>
+      <c r="C127" s="14">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A128" s="16">
+        <v>44063</v>
+      </c>
+      <c r="B128" s="14">
+        <v>57</v>
+      </c>
+      <c r="C128" s="14">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A129" s="16">
+        <v>44064</v>
+      </c>
+      <c r="B129" s="14">
+        <v>58</v>
+      </c>
+      <c r="C129" s="14">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A130" s="16">
+        <v>44065</v>
+      </c>
+      <c r="B130" s="14">
+        <v>60</v>
+      </c>
+      <c r="C130" s="14">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A131" s="16">
+        <v>44066</v>
+      </c>
+      <c r="B131" s="14">
+        <v>59</v>
+      </c>
+      <c r="C131" s="14">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A132" s="16">
+        <v>44067</v>
+      </c>
+      <c r="B132" s="14">
+        <v>59</v>
+      </c>
+      <c r="C132" s="14">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A133" s="16">
+        <v>44068</v>
+      </c>
+      <c r="B133" s="14">
+        <v>57</v>
+      </c>
+      <c r="C133" s="14">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A134" s="16">
+        <v>44069</v>
+      </c>
+      <c r="B134" s="14">
+        <v>64</v>
+      </c>
+      <c r="C134" s="14">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A135" s="16">
+        <v>44070</v>
+      </c>
+      <c r="B135" s="14">
+        <v>69</v>
+      </c>
+      <c r="C135" s="14">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A136" s="16">
+        <v>44071</v>
+      </c>
+      <c r="B136" s="14">
+        <v>78</v>
+      </c>
+      <c r="C136" s="14">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A137" s="16">
+        <v>44072</v>
+      </c>
+      <c r="B137" s="14">
+        <v>90</v>
+      </c>
+      <c r="C137" s="14">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A138" s="16">
+        <v>44073</v>
+      </c>
+      <c r="B138" s="14">
+        <v>90</v>
+      </c>
+      <c r="C138" s="14">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A139" s="16">
+        <v>44074</v>
+      </c>
+      <c r="B139" s="14">
+        <v>103</v>
+      </c>
+      <c r="C139" s="14">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A140" s="16">
+        <v>44075</v>
+      </c>
+      <c r="B140" s="14">
+        <v>96</v>
+      </c>
+      <c r="C140" s="14">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A141" s="16">
+        <v>44076</v>
+      </c>
+      <c r="B141" s="14">
+        <v>98</v>
+      </c>
+      <c r="C141" s="14">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A142" s="16">
+        <v>44077</v>
+      </c>
+      <c r="B142" s="14">
+        <v>100</v>
+      </c>
+      <c r="C142" s="14">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A143" s="16">
+        <v>44078</v>
+      </c>
+      <c r="B143" s="14">
+        <v>120</v>
+      </c>
+      <c r="C143" s="14">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A144" s="16">
+        <v>44079</v>
+      </c>
+      <c r="B144" s="14">
+        <v>139</v>
+      </c>
+      <c r="C144" s="14">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A145" s="16">
+        <v>44080</v>
+      </c>
+      <c r="B145" s="14">
+        <v>151</v>
+      </c>
+      <c r="C145" s="14">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A146" s="16">
+        <v>44081</v>
+      </c>
+      <c r="B146" s="14">
+        <v>164</v>
+      </c>
+      <c r="C146" s="14">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A147" s="16">
+        <v>44082</v>
+      </c>
+      <c r="B147" s="14">
+        <v>192</v>
+      </c>
+      <c r="C147" s="14">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A148" s="16">
+        <v>44083</v>
+      </c>
+      <c r="B148" s="14">
+        <v>221</v>
+      </c>
+      <c r="C148" s="14">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A149" s="16">
+        <v>44084</v>
+      </c>
+      <c r="B149" s="14">
+        <v>234</v>
+      </c>
+      <c r="C149" s="14">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="150" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A150" s="16">
+        <v>44085</v>
+      </c>
+      <c r="B150" s="14">
+        <v>259</v>
+      </c>
+      <c r="C150" s="14">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="151" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A151" s="16">
+        <v>44086</v>
+      </c>
+      <c r="B151" s="14">
+        <v>282</v>
+      </c>
+      <c r="C151" s="14">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="152" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A152" s="16">
+        <v>44087</v>
+      </c>
+      <c r="B152" s="14">
+        <v>282</v>
+      </c>
+      <c r="C152" s="14">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="153" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A153" s="16">
+        <v>44088</v>
+      </c>
+      <c r="B153" s="14">
+        <v>287</v>
+      </c>
+      <c r="C153" s="14">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="154" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A154" s="16">
+        <v>44089</v>
+      </c>
+      <c r="B154" s="14">
+        <v>306</v>
+      </c>
+      <c r="C154" s="14">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="155" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A155" s="16">
+        <v>44090</v>
+      </c>
+      <c r="B155" s="14">
+        <v>324</v>
+      </c>
+      <c r="C155" s="14">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="156" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A156" s="16">
+        <v>44091</v>
+      </c>
+      <c r="B156" s="14">
+        <v>328</v>
+      </c>
+      <c r="C156" s="14">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="157" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A157" s="16">
+        <v>44092</v>
+      </c>
+      <c r="B157" s="14">
+        <v>374</v>
+      </c>
+      <c r="C157" s="14">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="158" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A158" s="16">
+        <v>44093</v>
+      </c>
+      <c r="B158" s="14">
+        <v>386</v>
+      </c>
+      <c r="C158" s="14">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="159" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A159" s="16">
+        <v>44094</v>
+      </c>
+      <c r="B159" s="14">
+        <v>404</v>
+      </c>
+      <c r="C159" s="14">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="160" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A160" s="16">
+        <v>44095</v>
+      </c>
+      <c r="B160" s="14">
+        <v>463</v>
+      </c>
+      <c r="C160" s="14">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="161" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A161" s="16">
+        <v>44096</v>
+      </c>
+      <c r="B161" s="14">
+        <v>534</v>
+      </c>
+      <c r="C161" s="14">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="162" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A162" s="16">
+        <v>44097</v>
+      </c>
+      <c r="B162" s="14">
+        <v>558</v>
+      </c>
+      <c r="C162" s="14">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="163" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A163" s="16">
+        <v>44098</v>
+      </c>
+      <c r="B163" s="14">
+        <v>549</v>
+      </c>
+      <c r="C163" s="14">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="164" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A164" s="16">
+        <v>44099</v>
+      </c>
+      <c r="B164" s="14">
+        <v>577</v>
+      </c>
+      <c r="C164" s="14">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="165" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A165" s="16">
+        <v>44100</v>
+      </c>
+      <c r="B165" s="14">
+        <v>589</v>
+      </c>
+      <c r="C165" s="14">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="166" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A166" s="16">
+        <v>44101</v>
+      </c>
+      <c r="B166" s="14">
+        <v>620</v>
+      </c>
+      <c r="C166" s="14">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="167" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A167" s="16">
+        <v>44102</v>
+      </c>
+      <c r="B167" s="14">
+        <v>693</v>
+      </c>
+      <c r="C167" s="14">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="168" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A168" s="16">
+        <v>44103</v>
+      </c>
+      <c r="B168" s="14">
+        <v>755</v>
+      </c>
+      <c r="C168" s="14">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="169" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A169" s="16">
+        <v>44104</v>
+      </c>
+      <c r="B169" s="14">
+        <v>773</v>
+      </c>
+      <c r="C169" s="14">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="170" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A170" s="16">
+        <v>44105</v>
+      </c>
+      <c r="B170" s="14">
+        <v>757</v>
+      </c>
+      <c r="C170" s="14">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="171" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A171" s="16">
+        <v>44106</v>
+      </c>
+      <c r="B171" s="14">
+        <v>740</v>
+      </c>
+      <c r="C171" s="14">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="172" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A172" s="16">
+        <v>44107</v>
+      </c>
+      <c r="B172" s="14">
+        <v>704</v>
+      </c>
+      <c r="C172" s="14">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="173" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A173" s="16">
+        <v>44108</v>
+      </c>
+      <c r="B173" s="14">
+        <v>685</v>
+      </c>
+      <c r="C173" s="14">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="174" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A174" s="16">
+        <v>44109</v>
+      </c>
+      <c r="B174" s="14">
+        <v>649</v>
+      </c>
+      <c r="C174" s="14">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="175" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A175" s="16">
+        <v>44110</v>
+      </c>
+      <c r="B175" s="14">
+        <v>627</v>
+      </c>
+      <c r="C175" s="14">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="176" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A176" s="16">
+        <v>44111</v>
+      </c>
+      <c r="B176" s="14">
+        <v>656</v>
+      </c>
+      <c r="C176" s="14">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="177" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A177" s="16">
+        <v>44112</v>
+      </c>
+      <c r="B177" s="14">
+        <v>804</v>
+      </c>
+      <c r="C177" s="14">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="178" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A178" s="16">
+        <v>44113</v>
+      </c>
+      <c r="B178" s="14">
+        <v>993</v>
+      </c>
+      <c r="C178" s="14">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="179" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A179" s="16">
+        <v>44114</v>
+      </c>
+      <c r="B179" s="14">
+        <v>1174</v>
+      </c>
+      <c r="C179" s="14">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="180" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A180" s="16">
+        <v>44115</v>
+      </c>
+      <c r="B180" s="14">
+        <v>1252</v>
+      </c>
+      <c r="C180" s="14">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="181" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A181" s="16">
+        <v>44116</v>
+      </c>
+      <c r="B181" s="14">
+        <v>1418</v>
+      </c>
+      <c r="C181" s="14">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="182" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A182" s="16">
+        <v>44117</v>
+      </c>
+      <c r="B182" s="14">
+        <v>1519</v>
+      </c>
+      <c r="C182" s="14">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="183" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A183" s="16">
+        <v>44118</v>
+      </c>
+      <c r="B183" s="14">
+        <v>1538</v>
+      </c>
+      <c r="C183" s="14">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="184" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A184" s="16">
+        <v>44119</v>
+      </c>
+      <c r="B184" s="14">
+        <v>1555</v>
+      </c>
+      <c r="C184" s="14">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="185" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A185" s="16">
+        <v>44120</v>
+      </c>
+      <c r="B185" s="14">
+        <v>1642</v>
+      </c>
+      <c r="C185" s="14">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="186" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A186" s="16">
+        <v>44121</v>
+      </c>
+      <c r="B186" s="14">
+        <v>1693</v>
+      </c>
+      <c r="C186" s="14">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="187" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A187" s="16">
+        <v>44122</v>
+      </c>
+      <c r="B187" s="14">
+        <v>1712</v>
+      </c>
+      <c r="C187" s="14">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="188" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A188" s="16">
+        <v>44123</v>
+      </c>
+      <c r="B188" s="14">
+        <v>1896</v>
+      </c>
+      <c r="C188" s="14">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="189" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A189" s="16">
+        <v>44124</v>
+      </c>
+      <c r="B189" s="14">
+        <v>1960</v>
+      </c>
+      <c r="C189" s="14">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="190" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A190" s="16">
+        <v>44125</v>
+      </c>
+      <c r="B190" s="14">
+        <v>2023</v>
+      </c>
+      <c r="C190" s="14">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="191" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A191" s="16">
+        <v>44126</v>
+      </c>
+      <c r="B191" s="14">
+        <v>2132</v>
+      </c>
+      <c r="C191" s="14">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="192" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A192" s="16">
+        <v>44127</v>
+      </c>
+      <c r="B192" s="14">
+        <v>2209</v>
+      </c>
+      <c r="C192" s="14">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="193" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A193" s="16">
+        <v>44128</v>
+      </c>
+      <c r="B193" s="14">
+        <v>2245</v>
+      </c>
+      <c r="C193" s="14">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="194" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A194" s="16">
+        <v>44129</v>
+      </c>
+      <c r="B194" s="14">
+        <v>2449</v>
+      </c>
+      <c r="C194" s="14">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="195" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A195" s="16">
+        <v>44130</v>
+      </c>
+      <c r="B195" s="14">
+        <v>2602</v>
+      </c>
+      <c r="C195" s="14">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="196" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A196" s="16">
+        <v>44131</v>
+      </c>
+      <c r="B196" s="14">
+        <v>2891</v>
+      </c>
+      <c r="C196" s="14">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="197" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A197" s="16">
+        <v>44132</v>
+      </c>
+      <c r="B197" s="14">
+        <v>3166</v>
+      </c>
+      <c r="C197" s="14">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="198" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A198" s="16">
+        <v>44133</v>
+      </c>
+      <c r="B198" s="14">
+        <v>3197</v>
+      </c>
+      <c r="C198" s="14">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="199" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A199" s="16">
+        <v>44134</v>
+      </c>
+      <c r="B199" s="14">
+        <v>3753</v>
+      </c>
+      <c r="C199" s="14">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="200" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A200" s="16">
+        <v>44135</v>
+      </c>
+      <c r="B200" s="14">
+        <v>4048</v>
+      </c>
+      <c r="C200" s="14">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="201" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A201" s="16">
+        <v>44136</v>
+      </c>
+      <c r="B201" s="14">
+        <v>4205</v>
+      </c>
+      <c r="C201" s="14">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="202" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A202" s="16">
+        <v>44137</v>
+      </c>
+      <c r="B202" s="14">
+        <v>4417</v>
+      </c>
+      <c r="C202" s="14">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="203" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A203" s="16">
+        <v>44138</v>
+      </c>
+      <c r="B203" s="14">
+        <v>4767</v>
+      </c>
+      <c r="C203" s="14">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="204" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A204" s="16">
+        <v>44139</v>
+      </c>
+      <c r="B204" s="14">
+        <v>4871</v>
+      </c>
+      <c r="C204" s="14">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="205" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A205" s="16">
+        <v>44140</v>
+      </c>
+      <c r="B205" s="14">
+        <v>5183</v>
+      </c>
+      <c r="C205" s="14">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="206" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A206" s="16">
+        <v>44141</v>
+      </c>
+      <c r="B206" s="14">
+        <v>5489</v>
+      </c>
+      <c r="C206" s="14">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="207" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A207" s="16">
+        <v>44142</v>
+      </c>
+      <c r="B207" s="14">
+        <v>5612</v>
+      </c>
+      <c r="C207" s="14">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="208" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A208" s="16">
+        <v>44143</v>
+      </c>
+      <c r="B208" s="14">
+        <v>5803</v>
+      </c>
+      <c r="C208" s="14">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="209" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A209" s="16">
+        <v>44144</v>
+      </c>
+      <c r="B209" s="14">
+        <v>6061</v>
+      </c>
+      <c r="C209" s="14">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="210" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A210" s="16">
+        <v>44145</v>
+      </c>
+      <c r="B210" s="14">
+        <v>6153</v>
+      </c>
+      <c r="C210" s="14">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="211" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A211" s="16">
+        <v>44146</v>
+      </c>
+      <c r="B211" s="14">
+        <v>6352</v>
+      </c>
+      <c r="C211" s="14">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="212" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A212" s="16">
+        <v>44147</v>
+      </c>
+      <c r="B212" s="14">
+        <v>6426</v>
+      </c>
+      <c r="C212" s="14">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="213" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A213" s="16">
+        <v>44148</v>
+      </c>
+      <c r="B213" s="14">
+        <v>6690</v>
+      </c>
+      <c r="C213" s="14">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="214" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A214" s="16">
+        <v>44149</v>
+      </c>
+      <c r="B214" s="14">
+        <v>7029</v>
+      </c>
+      <c r="C214" s="14">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="215" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A215" s="16">
+        <v>44150</v>
+      </c>
+      <c r="B215" s="14">
+        <v>7013</v>
+      </c>
+      <c r="C215" s="14">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="216" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A216" s="16">
+        <v>44151</v>
+      </c>
+      <c r="B216" s="14">
+        <v>7236</v>
+      </c>
+      <c r="C216" s="14">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="217" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A217" s="16">
+        <v>44152</v>
+      </c>
+      <c r="B217" s="14">
+        <v>7477</v>
+      </c>
+      <c r="C217" s="14">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="218" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A218" s="16">
+        <v>44153</v>
+      </c>
+      <c r="B218" s="14">
+        <v>7499</v>
+      </c>
+      <c r="C218" s="14">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="219" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A219" s="16">
+        <v>44154</v>
+      </c>
+      <c r="B219" s="14">
+        <v>7532</v>
+      </c>
+      <c r="C219" s="14">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="220" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A220" s="16">
+        <v>44155</v>
+      </c>
+      <c r="B220" s="14">
+        <v>7512</v>
+      </c>
+      <c r="C220" s="14">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="221" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A221" s="16">
+        <v>44156</v>
+      </c>
+      <c r="B221" s="14">
+        <v>7358</v>
+      </c>
+      <c r="C221" s="14">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="222" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A222" s="16">
+        <v>44157</v>
+      </c>
+      <c r="B222" s="14">
+        <v>7278</v>
+      </c>
+      <c r="C222" s="14">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="223" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A223" s="16">
+        <v>44158</v>
+      </c>
+      <c r="B223" s="14">
+        <v>7461</v>
+      </c>
+      <c r="C223" s="14">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="224" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A224" s="16">
+        <v>44159</v>
+      </c>
+      <c r="B224" s="14">
+        <v>7598</v>
+      </c>
+      <c r="C224" s="14">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="225" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A225" s="16">
+        <v>44160</v>
+      </c>
+      <c r="B225" s="14">
+        <v>7718</v>
+      </c>
+      <c r="C225" s="14">
+        <v>656</v>
+      </c>
+    </row>
+    <row r="226" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A226" s="16">
+        <v>44161</v>
+      </c>
+      <c r="B226" s="14">
+        <v>7537</v>
+      </c>
+      <c r="C226" s="14">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="227" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A227" s="16">
+        <v>44162</v>
+      </c>
+      <c r="B227" s="14">
+        <v>7591</v>
+      </c>
+      <c r="C227" s="14">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="228" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A228" s="16">
+        <v>44163</v>
+      </c>
+      <c r="B228" s="14">
+        <v>7536</v>
+      </c>
+      <c r="C228" s="14">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="229" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A229" s="16">
+        <v>44164</v>
+      </c>
+      <c r="B229" s="14">
+        <v>7590</v>
+      </c>
+      <c r="C229" s="14">
+        <v>657</v>
+      </c>
+    </row>
+    <row r="230" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A230" s="16">
+        <v>44165</v>
+      </c>
+      <c r="B230" s="14">
+        <v>7734</v>
+      </c>
+      <c r="C230" s="14">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="231" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A231" s="16">
+        <v>44166</v>
+      </c>
+      <c r="B231" s="14">
+        <v>7884</v>
+      </c>
+      <c r="C231" s="14">
+        <v>662</v>
+      </c>
+    </row>
+    <row r="232" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A232" s="16">
+        <v>44167</v>
+      </c>
+      <c r="B232" s="14">
+        <v>7732</v>
+      </c>
+      <c r="C232" s="14">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="233" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A233" s="16">
+        <v>44168</v>
+      </c>
+      <c r="B233" s="14">
+        <v>7693</v>
+      </c>
+      <c r="C233" s="14">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="234" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A234" s="16">
+        <v>44169</v>
+      </c>
+      <c r="B234" s="14">
+        <v>7812</v>
+      </c>
+      <c r="C234" s="14">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="235" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A235" s="16">
+        <v>44170</v>
+      </c>
+      <c r="B235" s="14">
+        <v>7695</v>
+      </c>
+      <c r="C235" s="14">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="236" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A236" s="16">
+        <v>44171</v>
+      </c>
+      <c r="B236" s="14">
+        <v>7709</v>
+      </c>
+      <c r="C236" s="14">
+        <v>656</v>
+      </c>
+    </row>
+    <row r="237" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A237" s="16">
+        <v>44172</v>
+      </c>
+      <c r="B237" s="14">
+        <v>7932</v>
+      </c>
+      <c r="C237" s="14">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="238" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A238" s="16">
+        <v>44173</v>
+      </c>
+      <c r="B238" s="14">
+        <v>8045</v>
+      </c>
+      <c r="C238" s="14">
+        <v>656</v>
+      </c>
+    </row>
+    <row r="239" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A239" s="16">
+        <v>44174</v>
+      </c>
+      <c r="B239" s="14">
+        <v>7945</v>
+      </c>
+      <c r="C239" s="14">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="240" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A240" s="16">
+        <v>44175</v>
+      </c>
+      <c r="B240" s="14">
+        <v>7869</v>
+      </c>
+      <c r="C240" s="14">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="241" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A241" s="16">
+        <v>44176</v>
+      </c>
+      <c r="B241" s="14">
+        <v>7871</v>
+      </c>
+      <c r="C241" s="14">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="242" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A242" s="16">
+        <v>44177</v>
+      </c>
+      <c r="B242" s="14">
+        <v>7807</v>
+      </c>
+      <c r="C242" s="14">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="243" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A243" s="16">
+        <v>44178</v>
+      </c>
+      <c r="B243" s="14">
+        <v>7646</v>
+      </c>
+      <c r="C243" s="14">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="244" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A244" s="16">
+        <v>44179</v>
+      </c>
+      <c r="B244" s="14">
+        <v>7667</v>
+      </c>
+      <c r="C244" s="14">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="245" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A245" s="16">
+        <v>44180</v>
+      </c>
+      <c r="B245" s="14">
+        <v>7845</v>
+      </c>
+      <c r="C245" s="14">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="246" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A246" s="16">
+        <v>44181</v>
+      </c>
+      <c r="B246" s="14">
+        <v>7639</v>
+      </c>
+      <c r="C246" s="14">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="247" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A247" s="16">
+        <v>44182</v>
+      </c>
+      <c r="B247" s="14">
+        <v>7522</v>
+      </c>
+      <c r="C247" s="14">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="248" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A248" s="16">
+        <v>44183</v>
+      </c>
+      <c r="B248" s="14">
+        <v>7335</v>
+      </c>
+      <c r="C248" s="14">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="249" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A249" s="16">
+        <v>44184</v>
+      </c>
+      <c r="B249" s="14">
+        <v>7295</v>
+      </c>
+      <c r="C249" s="14">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="250" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A250" s="16">
+        <v>44185</v>
+      </c>
+      <c r="B250" s="14">
+        <v>7022</v>
+      </c>
+      <c r="C250" s="14">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="251" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A251" s="16">
+        <v>44186</v>
+      </c>
+      <c r="B251" s="14">
+        <v>7097</v>
+      </c>
+      <c r="C251" s="14">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="252" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A252" s="16">
+        <v>44187</v>
+      </c>
+      <c r="B252" s="14">
+        <v>7124</v>
+      </c>
+      <c r="C252" s="14">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="253" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A253" s="16">
+        <v>44188</v>
+      </c>
+      <c r="B253" s="14">
+        <v>6727</v>
+      </c>
+      <c r="C253" s="14">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="254" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A254" s="16">
+        <v>44189</v>
+      </c>
+      <c r="B254" s="14">
+        <v>6382</v>
+      </c>
+      <c r="C254" s="14">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="255" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A255" s="16">
+        <v>44190</v>
+      </c>
+      <c r="B255" s="14">
+        <v>6006</v>
+      </c>
+      <c r="C255" s="14">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="256" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A256" s="16">
+        <v>44191</v>
+      </c>
+      <c r="B256" s="14">
+        <v>6003</v>
+      </c>
+      <c r="C256" s="14">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="257" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A257" s="16">
+        <v>44192</v>
+      </c>
+      <c r="B257" s="14">
+        <v>6072</v>
+      </c>
+      <c r="C257" s="14">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="258" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A258" s="16">
+        <v>44193</v>
+      </c>
+      <c r="B258" s="14">
+        <v>6261</v>
+      </c>
+      <c r="C258" s="14">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="259" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A259" s="16">
+        <v>44194</v>
+      </c>
+      <c r="B259" s="14">
+        <v>6298</v>
+      </c>
+      <c r="C259" s="14">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="260" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A260" s="16">
+        <v>44195</v>
+      </c>
+      <c r="B260" s="14">
+        <v>6155</v>
+      </c>
+      <c r="C260" s="14">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="261" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A261" s="16">
+        <v>44196</v>
+      </c>
+      <c r="B261" s="14">
+        <v>5856</v>
+      </c>
+      <c r="C261" s="14">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="262" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A262" s="16">
+        <v>44197</v>
+      </c>
+      <c r="B262" s="14">
+        <v>5648</v>
+      </c>
+      <c r="C262" s="14">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="263" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A263" s="16">
+        <v>44198</v>
+      </c>
+      <c r="B263" s="14">
+        <v>5529</v>
+      </c>
+      <c r="C263" s="14">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="264" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A264" s="16">
+        <v>44199</v>
+      </c>
+      <c r="B264" s="14">
+        <v>5619</v>
+      </c>
+      <c r="C264" s="14">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="265" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A265" s="16">
+        <v>44200</v>
+      </c>
+      <c r="B265" s="14">
+        <v>5667</v>
+      </c>
+      <c r="C265" s="14">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="266" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A266" s="16">
+        <v>44201</v>
+      </c>
+      <c r="B266" s="14">
+        <v>5760</v>
+      </c>
+      <c r="C266" s="14">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="267" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A267" s="16">
+        <v>44202</v>
+      </c>
+      <c r="B267" s="14">
+        <v>5646</v>
+      </c>
+      <c r="C267" s="14">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="268" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A268" s="16">
+        <v>44203</v>
+      </c>
+      <c r="B268" s="14">
+        <v>5387</v>
+      </c>
+      <c r="C268" s="14">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="269" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A269" s="16">
+        <v>44204</v>
+      </c>
+      <c r="B269" s="14">
+        <v>5297</v>
+      </c>
+      <c r="C269" s="14">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="270" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A270" s="16">
+        <v>44205</v>
+      </c>
+      <c r="B270" s="14">
+        <v>5126</v>
+      </c>
+      <c r="C270" s="14">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="271" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A271" s="16">
+        <v>44206</v>
+      </c>
+      <c r="B271" s="14">
+        <v>4980</v>
+      </c>
+      <c r="C271" s="14">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="272" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A272" s="16">
+        <v>44207</v>
+      </c>
+      <c r="B272" s="14">
+        <v>5065</v>
+      </c>
+      <c r="C272" s="14">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="273" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A273" s="16">
+        <v>44208</v>
+      </c>
+      <c r="B273" s="14">
+        <v>5005</v>
+      </c>
+      <c r="C273" s="14">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="274" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A274" s="16">
+        <v>44209</v>
+      </c>
+      <c r="B274" s="14">
+        <v>4870</v>
+      </c>
+      <c r="C274" s="14">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="275" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A275" s="16">
+        <v>44210</v>
+      </c>
+      <c r="B275" s="14">
+        <v>4689</v>
+      </c>
+      <c r="C275" s="14">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="276" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A276" s="16">
+        <v>44211</v>
+      </c>
+      <c r="B276" s="14">
+        <v>4600</v>
+      </c>
+      <c r="C276" s="14">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="277" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A277" s="16">
+        <v>44212</v>
+      </c>
+      <c r="B277" s="14">
+        <v>4408</v>
+      </c>
+      <c r="C277" s="14">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="278" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A278" s="16">
+        <v>44213</v>
+      </c>
+      <c r="B278" s="14">
+        <v>4345</v>
+      </c>
+      <c r="C278" s="14">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="279" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A279" s="16">
+        <v>44214</v>
+      </c>
+      <c r="B279" s="14">
+        <v>4445</v>
+      </c>
+      <c r="C279" s="14">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="280" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A280" s="16">
+        <v>44215</v>
+      </c>
+      <c r="B280" s="14">
+        <v>4445</v>
+      </c>
+      <c r="C280" s="14">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="281" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A281" s="16">
+        <v>44216</v>
+      </c>
+      <c r="B281" s="14">
+        <v>4218</v>
+      </c>
+      <c r="C281" s="14">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="282" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A282" s="16">
+        <v>44217</v>
+      </c>
+      <c r="B282" s="14">
+        <v>4049</v>
+      </c>
+      <c r="C282" s="14">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="283" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A283" s="16">
+        <v>44218</v>
+      </c>
+      <c r="B283" s="14">
+        <v>3959</v>
+      </c>
+      <c r="C283" s="14">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="284" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A284" s="16">
+        <v>44219</v>
+      </c>
+      <c r="B284" s="14">
+        <v>3854</v>
+      </c>
+      <c r="C284" s="14">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="285" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A285" s="16">
+        <v>44220</v>
+      </c>
+      <c r="B285" s="14">
+        <v>3793</v>
+      </c>
+      <c r="C285" s="14">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="286" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A286" s="16">
+        <v>44221</v>
+      </c>
+      <c r="B286" s="14">
+        <v>3814</v>
+      </c>
+      <c r="C286" s="14">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="287" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A287" s="16">
+        <v>44222</v>
+      </c>
+      <c r="B287" s="14">
+        <v>3815</v>
+      </c>
+      <c r="C287" s="14">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="288" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A288" s="16">
+        <v>44223</v>
+      </c>
+      <c r="B288" s="14">
+        <v>3809</v>
+      </c>
+      <c r="C288" s="14">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="289" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A289" s="16">
+        <v>44224</v>
+      </c>
+      <c r="B289" s="14">
+        <v>3669</v>
+      </c>
+      <c r="C289" s="14">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="290" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A290" s="16">
+        <v>44225</v>
+      </c>
+      <c r="B290" s="14">
+        <v>3649</v>
+      </c>
+      <c r="C290" s="14">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="291" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A291" s="16">
+        <v>44226</v>
+      </c>
+      <c r="B291" s="14">
+        <v>3582</v>
+      </c>
+      <c r="C291" s="14">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="292" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A292" s="16">
+        <v>44227</v>
+      </c>
+      <c r="B292" s="14">
+        <v>3562</v>
+      </c>
+      <c r="C292" s="14">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="293" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A293" s="16">
+        <v>44228</v>
+      </c>
+      <c r="B293" s="14">
+        <v>3682</v>
+      </c>
+      <c r="C293" s="14">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="294" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A294" s="16">
+        <v>44229</v>
+      </c>
+      <c r="B294" s="14">
+        <v>3729</v>
+      </c>
+      <c r="C294" s="14">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="295" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A295" s="16">
+        <v>44230</v>
+      </c>
+      <c r="B295" s="14">
+        <v>3697</v>
+      </c>
+      <c r="C295" s="14">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="296" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A296" s="16">
+        <v>44231</v>
+      </c>
+      <c r="B296" s="14">
+        <v>3648</v>
+      </c>
+      <c r="C296" s="14">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="297" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A297" s="16">
+        <v>44232</v>
+      </c>
+      <c r="B297" s="14">
+        <v>3638</v>
+      </c>
+      <c r="C297" s="14">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="298" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A298" s="16">
+        <v>44233</v>
+      </c>
+      <c r="B298" s="14">
+        <v>3601</v>
+      </c>
+      <c r="C298" s="14">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="299" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A299" s="16">
+        <v>44234</v>
+      </c>
+      <c r="B299" s="14">
+        <v>3578</v>
+      </c>
+      <c r="C299" s="14">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="300" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A300" s="16">
+        <v>44235</v>
+      </c>
+      <c r="B300" s="14">
+        <v>3717</v>
+      </c>
+      <c r="C300" s="14">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="301" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A301" s="16">
+        <v>44236</v>
+      </c>
+      <c r="B301" s="14">
+        <v>3792</v>
+      </c>
+      <c r="C301" s="14">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="302" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A302" s="16">
+        <v>44237</v>
+      </c>
+      <c r="B302" s="14">
+        <v>3747</v>
+      </c>
+      <c r="C302" s="14">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="303" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A303" s="16">
+        <v>44238</v>
+      </c>
+      <c r="B303" s="14">
+        <v>3799</v>
+      </c>
+      <c r="C303" s="14">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="304" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A304" s="16">
+        <v>44239</v>
+      </c>
+      <c r="B304" s="14">
+        <v>3828</v>
+      </c>
+      <c r="C304" s="14">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="305" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A305" s="16">
+        <v>44240</v>
+      </c>
+      <c r="B305" s="14">
+        <v>3771</v>
+      </c>
+      <c r="C305" s="14">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="306" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A306" s="16">
+        <v>44241</v>
+      </c>
+      <c r="B306" s="14">
+        <v>3755</v>
+      </c>
+      <c r="C306" s="14">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="307" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A307" s="16">
+        <v>44242</v>
+      </c>
+      <c r="B307" s="14">
+        <v>3883</v>
+      </c>
+      <c r="C307" s="14">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="308" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A308" s="16">
+        <v>44243</v>
+      </c>
+      <c r="B308" s="14">
+        <v>3979</v>
+      </c>
+      <c r="C308" s="14">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="309" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A309" s="16">
+        <v>44244</v>
+      </c>
+      <c r="B309" s="14">
+        <v>4014</v>
+      </c>
+      <c r="C309" s="14">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="310" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A310" s="16">
+        <v>44245</v>
+      </c>
+      <c r="B310" s="14">
+        <v>4021</v>
+      </c>
+      <c r="C310" s="14">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="311" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A311" s="16">
+        <v>44246</v>
+      </c>
+      <c r="B311" s="14">
+        <v>4024</v>
+      </c>
+      <c r="C311" s="14">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="312" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A312" s="16">
+        <v>44247</v>
+      </c>
+      <c r="B312" s="14">
+        <v>4147</v>
+      </c>
+      <c r="C312" s="14">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="313" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A313" s="16">
+        <v>44248</v>
+      </c>
+      <c r="B313" s="14">
+        <v>4233</v>
+      </c>
+      <c r="C313" s="14">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="314" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A314" s="16">
+        <v>44249</v>
+      </c>
+      <c r="B314" s="14">
+        <v>4489</v>
+      </c>
+      <c r="C314" s="14">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="315" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A315" s="16">
+        <v>44250</v>
+      </c>
+      <c r="B315" s="14">
+        <v>4582</v>
+      </c>
+      <c r="C315" s="14">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="316" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A316" s="16">
+        <v>44251</v>
+      </c>
+      <c r="B316" s="14">
+        <v>4353</v>
+      </c>
+      <c r="C316" s="14">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="317" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A317" s="16">
+        <v>44252</v>
+      </c>
+      <c r="B317" s="14">
+        <v>4836</v>
+      </c>
+      <c r="C317" s="14">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="318" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A318" s="16">
+        <v>44253</v>
+      </c>
+      <c r="B318" s="14">
+        <v>5027</v>
+      </c>
+      <c r="C318" s="14">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="319" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A319" s="16">
+        <v>44254</v>
+      </c>
+      <c r="B319" s="14">
+        <v>5282</v>
+      </c>
+      <c r="C319" s="14">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="320" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A320" s="16">
+        <v>44255</v>
+      </c>
+      <c r="B320" s="14">
+        <v>5482</v>
+      </c>
+      <c r="C320" s="14">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="321" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A321" s="16">
+        <v>44256</v>
+      </c>
+      <c r="B321" s="14">
+        <v>5679</v>
+      </c>
+      <c r="C321" s="14">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="322" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A322" s="16">
+        <v>44257</v>
+      </c>
+      <c r="B322" s="14">
+        <v>6071</v>
+      </c>
+      <c r="C322" s="14">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="323" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A323" s="16">
+        <v>44258</v>
+      </c>
+      <c r="B323" s="14">
+        <v>6367</v>
+      </c>
+      <c r="C323" s="14">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="324" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A324" s="16">
+        <v>44259</v>
+      </c>
+      <c r="B324" s="14">
+        <v>6554</v>
+      </c>
+      <c r="C324" s="14">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="325" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A325" s="16">
+        <v>44260</v>
+      </c>
+      <c r="B325" s="14">
+        <v>6867</v>
+      </c>
+      <c r="C325" s="14">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="326" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A326" s="16">
+        <v>44261</v>
+      </c>
+      <c r="B326" s="14">
+        <v>7243</v>
+      </c>
+      <c r="C326" s="14">
+        <v>751</v>
+      </c>
+    </row>
+    <row r="327" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A327" s="16">
+        <v>44262</v>
+      </c>
+      <c r="B327" s="14">
+        <v>7445</v>
+      </c>
+      <c r="C327" s="14">
+        <v>778</v>
+      </c>
+    </row>
+    <row r="328" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A328" s="16">
+        <v>44263</v>
+      </c>
+      <c r="B328" s="14">
+        <v>7924</v>
+      </c>
+      <c r="C328" s="14">
+        <v>806</v>
+      </c>
+    </row>
+    <row r="329" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A329" s="16">
+        <v>44264</v>
+      </c>
+      <c r="B329" s="14">
+        <v>8270</v>
+      </c>
+      <c r="C329" s="14">
+        <v>833</v>
+      </c>
+    </row>
+    <row r="330" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A330" s="16">
+        <v>44265</v>
+      </c>
+      <c r="B330" s="14">
+        <v>8348</v>
+      </c>
+      <c r="C330" s="14">
+        <v>844</v>
+      </c>
+    </row>
+    <row r="331" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A331" s="16">
+        <v>44266</v>
+      </c>
+      <c r="B331" s="14">
+        <v>8329</v>
+      </c>
+      <c r="C331" s="14">
+        <v>911</v>
+      </c>
+    </row>
+    <row r="332" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A332" s="16">
+        <v>44267</v>
+      </c>
+      <c r="B332" s="14">
+        <v>8718</v>
+      </c>
+      <c r="C332" s="14">
+        <v>949</v>
+      </c>
+    </row>
+    <row r="333" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A333" s="16">
+        <v>44268</v>
+      </c>
+      <c r="B333" s="14">
+        <v>8897</v>
+      </c>
+      <c r="C333" s="14">
+        <v>989</v>
+      </c>
+    </row>
+    <row r="334" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A334" s="16">
+        <v>44269</v>
+      </c>
+      <c r="B334" s="14">
+        <v>8764</v>
+      </c>
+      <c r="C334" s="14">
+        <v>1005</v>
+      </c>
+    </row>
+    <row r="335" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A335" s="16">
+        <v>44270</v>
+      </c>
+      <c r="B335" s="14">
+        <v>9300</v>
+      </c>
+      <c r="C335" s="14">
+        <v>1008</v>
+      </c>
+    </row>
+    <row r="336" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A336" s="16">
+        <v>44271</v>
+      </c>
+      <c r="B336" s="14">
+        <v>9844</v>
+      </c>
+      <c r="C336" s="14">
+        <v>1067</v>
+      </c>
+    </row>
+    <row r="337" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A337" s="16">
+        <v>44272</v>
+      </c>
+      <c r="B337" s="14">
+        <v>10284</v>
+      </c>
+      <c r="C337" s="14">
+        <v>1167</v>
+      </c>
+    </row>
+    <row r="338" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A338" s="16">
+        <v>44273</v>
+      </c>
+      <c r="B338" s="14">
+        <v>10386</v>
+      </c>
+      <c r="C338" s="14">
+        <v>1170</v>
+      </c>
+    </row>
+    <row r="339" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A339" s="16">
+        <v>44274</v>
+      </c>
+      <c r="B339" s="14">
+        <v>10264</v>
+      </c>
+      <c r="C339" s="14">
+        <v>1174</v>
+      </c>
+    </row>
+    <row r="340" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A340" s="16">
+        <v>44275</v>
+      </c>
+      <c r="B340" s="14">
+        <v>10583</v>
+      </c>
+      <c r="C340" s="14">
+        <v>1237</v>
+      </c>
+    </row>
+    <row r="341" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A341" s="16">
+        <v>44276</v>
+      </c>
+      <c r="B341" s="14">
+        <v>10652</v>
+      </c>
+      <c r="C341" s="14">
+        <v>1273</v>
+      </c>
+    </row>
+    <row r="342" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A342" s="16">
+        <v>44277</v>
+      </c>
+      <c r="B342" s="14">
+        <v>11276</v>
+      </c>
+      <c r="C342" s="14">
+        <v>1340</v>
+      </c>
+    </row>
+    <row r="343" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A343" s="16">
+        <v>44278</v>
+      </c>
+      <c r="B343" s="14">
+        <v>11873</v>
+      </c>
+      <c r="C343" s="14">
+        <v>1389</v>
+      </c>
+    </row>
+    <row r="344" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A344" s="16">
+        <v>44279</v>
+      </c>
+      <c r="B344" s="14">
+        <v>11805</v>
+      </c>
+      <c r="C344" s="14">
+        <v>1423</v>
+      </c>
+    </row>
+    <row r="345" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A345" s="16">
+        <v>44280</v>
+      </c>
+      <c r="B345" s="14">
+        <v>11760</v>
+      </c>
+      <c r="C345" s="14">
+        <v>1467</v>
+      </c>
+    </row>
+    <row r="346" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A346" s="16">
+        <v>44281</v>
+      </c>
+      <c r="B346" s="14">
+        <v>11823</v>
+      </c>
+      <c r="C346" s="14">
+        <v>1480</v>
+      </c>
+    </row>
+    <row r="347" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A347" s="16">
+        <v>44282</v>
+      </c>
+      <c r="B347" s="14">
+        <v>11779</v>
+      </c>
+      <c r="C347" s="14">
+        <v>1512</v>
+      </c>
+    </row>
+    <row r="348" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A348" s="16">
+        <v>44283</v>
+      </c>
+      <c r="B348" s="14">
+        <v>11805</v>
+      </c>
+      <c r="C348" s="14">
+        <v>1527</v>
+      </c>
+    </row>
+    <row r="349" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A349" s="16">
+        <v>44284</v>
+      </c>
+      <c r="B349" s="14">
+        <v>12291</v>
+      </c>
+      <c r="C349" s="14">
+        <v>1497</v>
+      </c>
+    </row>
+    <row r="350" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A350" s="16">
+        <v>44285</v>
+      </c>
+      <c r="B350" s="14">
+        <v>12553</v>
+      </c>
+      <c r="C350" s="14">
+        <v>1529</v>
+      </c>
+    </row>
+    <row r="351" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A351" s="16">
+        <v>44286</v>
+      </c>
+      <c r="B351" s="14">
+        <v>12346</v>
+      </c>
+      <c r="C351" s="14">
+        <v>1492</v>
+      </c>
+    </row>
+    <row r="352" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A352" s="16">
+        <v>44287</v>
+      </c>
+      <c r="B352" s="14">
+        <v>12062</v>
+      </c>
+      <c r="C352" s="14">
+        <v>1512</v>
+      </c>
+    </row>
+    <row r="353" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A353" s="16">
+        <v>44288</v>
+      </c>
+      <c r="B353" s="14">
+        <v>11747</v>
+      </c>
+      <c r="C353" s="14">
+        <v>1467</v>
+      </c>
+    </row>
+    <row r="354" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A354" s="16">
+        <v>44289</v>
+      </c>
+      <c r="B354" s="14">
+        <v>11383</v>
+      </c>
+      <c r="C354" s="14">
+        <v>1437</v>
+      </c>
+    </row>
+    <row r="355" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A355" s="16">
+        <v>44290</v>
+      </c>
+      <c r="B355" s="14">
+        <v>11571</v>
+      </c>
+      <c r="C355" s="14">
+        <v>1440</v>
+      </c>
+    </row>
+    <row r="356" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A356" s="16">
+        <v>44291</v>
+      </c>
+      <c r="B356" s="14">
+        <v>11806</v>
+      </c>
+      <c r="C356" s="14">
+        <v>1451</v>
+      </c>
+    </row>
+    <row r="357" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A357" s="16">
+        <v>44292</v>
+      </c>
+      <c r="B357" s="14">
+        <v>12007</v>
+      </c>
+      <c r="C357" s="14">
+        <v>1440</v>
+      </c>
+    </row>
+    <row r="358" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A358" s="16">
+        <v>44293</v>
+      </c>
+      <c r="B358" s="14">
+        <v>12202</v>
+      </c>
+      <c r="C358" s="14">
+        <v>1407</v>
+      </c>
+    </row>
+    <row r="359" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A359" s="16">
+        <v>44294</v>
+      </c>
+      <c r="B359" s="14">
+        <v>11663</v>
+      </c>
+      <c r="C359" s="14">
+        <v>1337</v>
+      </c>
+    </row>
+    <row r="360" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A360" s="16">
+        <v>44295</v>
+      </c>
+      <c r="B360" s="14">
+        <v>11363</v>
+      </c>
+      <c r="C360" s="14">
+        <v>1364</v>
+      </c>
+    </row>
+    <row r="361" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A361" s="16">
+        <v>44296</v>
+      </c>
+      <c r="B361" s="14">
+        <v>10921</v>
+      </c>
+      <c r="C361" s="14">
+        <v>1344</v>
+      </c>
+    </row>
+    <row r="362" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A362" s="16">
+        <v>44297</v>
+      </c>
+      <c r="B362" s="14">
+        <v>10484</v>
+      </c>
+      <c r="C362" s="14">
+        <v>1290</v>
+      </c>
+    </row>
+    <row r="363" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A363" s="16">
+        <v>44298</v>
+      </c>
+      <c r="B363" s="14">
+        <v>10740</v>
+      </c>
+      <c r="C363" s="14">
+        <v>1249</v>
+      </c>
+    </row>
+    <row r="364" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A364" s="16">
+        <v>44299</v>
+      </c>
+      <c r="B364" s="14">
+        <v>10818</v>
+      </c>
+      <c r="C364" s="14">
+        <v>1209</v>
+      </c>
+    </row>
+    <row r="365" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A365" s="16">
+        <v>44300</v>
+      </c>
+      <c r="B365" s="14">
+        <v>10364</v>
+      </c>
+      <c r="C365" s="14">
+        <v>1204</v>
+      </c>
+    </row>
+    <row r="366" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A366" s="16">
+        <v>44301</v>
+      </c>
+      <c r="B366" s="14">
+        <v>9848</v>
+      </c>
+      <c r="C366" s="14">
+        <v>1156</v>
+      </c>
+    </row>
+    <row r="367" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A367" s="16">
+        <v>44302</v>
+      </c>
+      <c r="B367" s="14">
+        <v>9459</v>
+      </c>
+      <c r="C367" s="14">
+        <v>1117</v>
+      </c>
+    </row>
+    <row r="368" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A368" s="16">
+        <v>44303</v>
+      </c>
+      <c r="B368" s="14">
+        <v>8947</v>
+      </c>
+      <c r="C368" s="14">
+        <v>1093</v>
+      </c>
+    </row>
+    <row r="369" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A369" s="16">
+        <v>44304</v>
+      </c>
+      <c r="B369" s="14">
+        <v>8445</v>
+      </c>
+      <c r="C369" s="14">
+        <v>1051</v>
+      </c>
+    </row>
+    <row r="370" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A370" s="16">
+        <v>44305</v>
+      </c>
+      <c r="B370" s="14">
+        <v>8650</v>
+      </c>
+      <c r="C370" s="14">
+        <v>1052</v>
+      </c>
+    </row>
+    <row r="371" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A371" s="16">
+        <v>44306</v>
+      </c>
+      <c r="B371" s="14">
+        <v>8602</v>
+      </c>
+      <c r="C371" s="14">
+        <v>980</v>
+      </c>
+    </row>
+    <row r="372" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A372" s="16">
+        <v>44307</v>
+      </c>
+      <c r="B372" s="14">
+        <v>8097</v>
+      </c>
+      <c r="C372" s="14">
+        <v>925</v>
+      </c>
+    </row>
+    <row r="373" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A373" s="16">
+        <v>44308</v>
+      </c>
+      <c r="B373" s="14">
+        <v>7507</v>
+      </c>
+      <c r="C373" s="14">
+        <v>876</v>
+      </c>
+    </row>
+    <row r="374" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A374" s="16">
+        <v>44309</v>
+      </c>
+      <c r="B374" s="14">
+        <v>7177</v>
+      </c>
+      <c r="C374" s="14">
+        <v>844</v>
+      </c>
+    </row>
+    <row r="375" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A375" s="16">
+        <v>44310</v>
+      </c>
+      <c r="B375" s="14">
+        <v>6737</v>
+      </c>
+      <c r="C375" s="14">
+        <v>813</v>
+      </c>
+    </row>
+    <row r="376" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A376" s="16">
+        <v>44311</v>
+      </c>
+      <c r="B376" s="14">
+        <v>6284</v>
+      </c>
+      <c r="C376" s="14">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="377" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A377" s="16">
+        <v>44312</v>
+      </c>
+      <c r="B377" s="14">
+        <v>6443</v>
+      </c>
+      <c r="C377" s="14">
+        <v>782</v>
+      </c>
+    </row>
+    <row r="378" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A378" s="16">
+        <v>44313</v>
+      </c>
+      <c r="B378" s="14">
+        <v>6360</v>
+      </c>
+      <c r="C378" s="14">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="379" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A379" s="16">
+        <v>44314</v>
+      </c>
+      <c r="B379" s="14">
+        <v>5907</v>
+      </c>
+      <c r="C379" s="14">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="380" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A380" s="16">
+        <v>44315</v>
+      </c>
+      <c r="B380" s="14">
+        <v>5554</v>
+      </c>
+      <c r="C380" s="14">
+        <v>662</v>
+      </c>
+    </row>
+    <row r="381" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A381" s="16">
+        <v>44316</v>
+      </c>
+      <c r="B381" s="14">
+        <v>5937</v>
+      </c>
+      <c r="C381" s="14">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="382" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A382" s="16">
+        <v>44317</v>
+      </c>
+      <c r="B382" s="14">
+        <v>5191</v>
+      </c>
+      <c r="C382" s="14">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="383" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A383" s="16">
+        <v>44318</v>
+      </c>
+      <c r="B383" s="14">
+        <v>5031</v>
+      </c>
+      <c r="C383" s="14">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="384" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A384" s="16">
+        <v>44319</v>
+      </c>
+      <c r="B384" s="14">
+        <v>4872</v>
+      </c>
+      <c r="C384" s="14">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="385" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A385" s="16">
+        <v>44320</v>
+      </c>
+      <c r="B385" s="14">
+        <v>4739</v>
+      </c>
+      <c r="C385" s="14">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="386" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A386" s="16">
+        <v>44321</v>
+      </c>
+      <c r="B386" s="14">
+        <v>4374</v>
+      </c>
+      <c r="C386" s="14">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="387" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A387" s="16">
+        <v>44322</v>
+      </c>
+      <c r="B387" s="14">
+        <v>4104</v>
+      </c>
+      <c r="C387" s="14">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="388" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A388" s="16">
+        <v>44323</v>
+      </c>
+      <c r="B388" s="14">
+        <v>3855</v>
+      </c>
+      <c r="C388" s="14">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="389" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A389" s="16">
+        <v>44324</v>
+      </c>
+      <c r="B389" s="14">
+        <v>3633</v>
+      </c>
+      <c r="C389" s="14">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="390" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A390" s="16">
+        <v>44325</v>
+      </c>
+      <c r="B390" s="14">
+        <v>3353</v>
+      </c>
+      <c r="C390" s="14">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="391" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A391" s="16">
+        <v>44326</v>
+      </c>
+      <c r="B391" s="14">
+        <v>3384</v>
+      </c>
+      <c r="C391" s="14">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="392" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A392" s="16">
+        <v>44327</v>
+      </c>
+      <c r="B392" s="14">
+        <v>3282</v>
+      </c>
+      <c r="C392" s="14">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="393" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A393" s="16">
+        <v>44328</v>
+      </c>
+      <c r="B393" s="14">
+        <v>2974</v>
+      </c>
+      <c r="C393" s="14">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="394" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A394" s="16">
+        <v>44329</v>
+      </c>
+      <c r="B394" s="14">
+        <v>2782</v>
+      </c>
+      <c r="C394" s="14">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="395" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A395" s="16">
+        <v>44330</v>
+      </c>
+      <c r="B395" s="14">
+        <v>2612</v>
+      </c>
+      <c r="C395" s="14">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="396" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A396" s="16">
+        <v>44331</v>
+      </c>
+      <c r="B396" s="14">
+        <v>2453</v>
+      </c>
+      <c r="C396" s="14">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="397" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A397" s="16">
+        <v>44332</v>
+      </c>
+      <c r="B397" s="14">
+        <v>2270</v>
+      </c>
+      <c r="C397" s="14">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="398" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A398" s="16">
+        <v>44333</v>
+      </c>
+      <c r="B398" s="14">
+        <v>2259</v>
+      </c>
+      <c r="C398" s="14">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="399" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A399" s="16">
+        <v>44334</v>
+      </c>
+      <c r="B399" s="14">
+        <v>2197</v>
+      </c>
+      <c r="C399" s="14">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="400" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A400" s="16">
+        <v>44335</v>
+      </c>
+      <c r="B400" s="14">
+        <v>1908</v>
+      </c>
+      <c r="C400" s="14">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="401" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A401" s="16">
+        <v>44336</v>
+      </c>
+      <c r="B401" s="14">
+        <v>1836</v>
+      </c>
+      <c r="C401" s="14">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="402" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A402" s="16">
+        <v>44337</v>
+      </c>
+      <c r="B402" s="14">
+        <v>1645</v>
+      </c>
+      <c r="C402" s="14">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="403" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A403" s="16">
+        <v>44338</v>
+      </c>
+      <c r="B403" s="14">
+        <v>1500</v>
+      </c>
+      <c r="C403" s="14">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="404" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A404" s="16">
+        <v>44339</v>
+      </c>
+      <c r="B404" s="14">
+        <v>1399</v>
+      </c>
+      <c r="C404" s="14">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="405" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A405" s="16">
+        <v>44340</v>
+      </c>
+      <c r="B405" s="14">
+        <v>1420</v>
+      </c>
+      <c r="C405" s="14">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="406" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A406" s="16">
+        <v>44341</v>
+      </c>
+      <c r="B406" s="14">
+        <v>1417</v>
+      </c>
+      <c r="C406" s="14">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="407" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A407" s="16">
+        <v>44342</v>
+      </c>
+      <c r="B407" s="14">
+        <v>1373</v>
+      </c>
+      <c r="C407" s="14">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="408" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A408" s="16">
+        <v>44343</v>
+      </c>
+      <c r="B408" s="14">
+        <v>1215</v>
+      </c>
+      <c r="C408" s="14">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="409" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A409" s="16">
+        <v>44344</v>
+      </c>
+      <c r="B409" s="14">
+        <v>1120</v>
+      </c>
+      <c r="C409" s="14">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="410" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A410" s="16">
+        <v>44345</v>
+      </c>
+      <c r="B410" s="14">
+        <v>1024</v>
+      </c>
+      <c r="C410" s="14">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="411" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A411" s="16">
+        <v>44346</v>
+      </c>
+      <c r="B411" s="14">
+        <v>965</v>
+      </c>
+      <c r="C411" s="14">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="412" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A412" s="16">
+        <v>44347</v>
+      </c>
+      <c r="B412" s="14">
+        <v>981</v>
+      </c>
+      <c r="C412" s="14">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="413" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A413" s="16">
+        <v>44348</v>
+      </c>
+      <c r="B413" s="14">
+        <v>947</v>
+      </c>
+      <c r="C413" s="14">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="414" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A414" s="16">
+        <v>44349</v>
+      </c>
+      <c r="B414" s="14">
+        <v>837</v>
+      </c>
+      <c r="C414" s="14">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="415" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A415" s="16">
+        <v>44350</v>
+      </c>
+      <c r="B415" s="14">
+        <v>739</v>
+      </c>
+      <c r="C415" s="14">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="416" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A416" s="16">
+        <v>44351</v>
+      </c>
+      <c r="B416" s="14">
+        <v>702</v>
+      </c>
+      <c r="C416" s="14">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="417" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A417" s="16">
+        <v>44352</v>
+      </c>
+      <c r="B417" s="14">
+        <v>622</v>
+      </c>
+      <c r="C417" s="14">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="418" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A418" s="16">
+        <v>44353</v>
+      </c>
+      <c r="B418" s="14">
+        <v>602</v>
+      </c>
+      <c r="C418" s="14">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="419" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A419" s="16">
+        <v>44354</v>
+      </c>
+      <c r="B419" s="14">
+        <v>599</v>
+      </c>
+      <c r="C419" s="14">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="420" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A420" s="16">
+        <v>44355</v>
+      </c>
+      <c r="B420" s="14">
+        <v>591</v>
+      </c>
+      <c r="C420" s="14">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="421" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A421" s="16">
+        <v>44356</v>
+      </c>
+      <c r="B421" s="14">
+        <v>549</v>
+      </c>
+      <c r="C421" s="14">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="422" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A422" s="16">
+        <v>44357</v>
+      </c>
+      <c r="B422" s="14">
+        <v>481</v>
+      </c>
+      <c r="C422" s="14">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="423" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A423" s="16">
+        <v>44358</v>
+      </c>
+      <c r="B423" s="14">
+        <v>442</v>
+      </c>
+      <c r="C423" s="14">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="424" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A424" s="16">
+        <v>44359</v>
+      </c>
+      <c r="B424" s="15"/>
+      <c r="C424" s="15"/>
+    </row>
+    <row r="425" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A425" s="16">
+        <v>44360</v>
+      </c>
+      <c r="B425" s="15"/>
+      <c r="C425" s="15"/>
+    </row>
+    <row r="426" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A426" s="16">
+        <v>44361</v>
+      </c>
+      <c r="B426" s="14">
+        <v>406</v>
+      </c>
+      <c r="C426" s="14">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="427" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A427" s="16">
+        <v>44362</v>
+      </c>
+      <c r="B427" s="14">
+        <v>391</v>
+      </c>
+      <c r="C427" s="14">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="428" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A428" s="16">
+        <v>44363</v>
+      </c>
+      <c r="B428" s="14">
+        <v>349</v>
+      </c>
+      <c r="C428" s="14">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="429" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A429" s="16">
+        <v>44364</v>
+      </c>
+      <c r="B429" s="14">
+        <v>320</v>
+      </c>
+      <c r="C429" s="14">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="430" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A430" s="16">
+        <v>44365</v>
+      </c>
+      <c r="B430" s="14">
+        <v>289</v>
+      </c>
+      <c r="C430" s="14">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="431" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A431" s="16">
+        <v>44366</v>
+      </c>
+      <c r="B431" s="15"/>
+      <c r="C431" s="15"/>
+    </row>
+    <row r="432" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A432" s="16">
+        <v>44367</v>
+      </c>
+      <c r="B432" s="15"/>
+      <c r="C432" s="15"/>
+    </row>
+    <row r="433" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A433" s="16">
+        <v>44368</v>
+      </c>
+      <c r="B433" s="14">
+        <v>275</v>
+      </c>
+      <c r="C433" s="14">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="434" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A434" s="16">
+        <v>44369</v>
+      </c>
+      <c r="B434" s="14">
+        <v>281</v>
+      </c>
+      <c r="C434" s="14">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="435" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A435" s="16">
+        <v>44370</v>
+      </c>
+      <c r="B435" s="14">
+        <v>241</v>
+      </c>
+      <c r="C435" s="14">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="436" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A436" s="16">
+        <v>44371</v>
+      </c>
+      <c r="B436" s="14">
+        <v>215</v>
+      </c>
+      <c r="C436" s="14">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="437" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A437" s="16">
+        <v>44372</v>
+      </c>
+      <c r="B437" s="14">
+        <v>182</v>
+      </c>
+      <c r="C437" s="14">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="438" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A438" s="16">
+        <v>44373</v>
+      </c>
+      <c r="B438" s="15"/>
+      <c r="C438" s="15"/>
+    </row>
+    <row r="439" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A439" s="16">
+        <v>44374</v>
+      </c>
+      <c r="B439" s="15"/>
+      <c r="C439" s="15"/>
+    </row>
+    <row r="440" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A440" s="16">
+        <v>44375</v>
+      </c>
+      <c r="B440" s="14">
+        <v>157</v>
+      </c>
+      <c r="C440" s="14">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="441" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A441" s="16">
+        <v>44376</v>
+      </c>
+      <c r="B441" s="14">
+        <v>150</v>
+      </c>
+      <c r="C441" s="14">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="442" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A442" s="16">
+        <v>44377</v>
+      </c>
+      <c r="B442" s="14">
+        <v>126</v>
+      </c>
+      <c r="C442" s="14">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="443" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A443" s="16">
+        <v>44378</v>
+      </c>
+      <c r="B443" s="14">
+        <v>116</v>
+      </c>
+      <c r="C443" s="14">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="444" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A444" s="16">
+        <v>44379</v>
+      </c>
+      <c r="B444" s="14">
+        <v>98</v>
+      </c>
+      <c r="C444" s="14">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="445" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A445" s="16">
+        <v>44380</v>
+      </c>
+      <c r="B445" s="15"/>
+      <c r="C445" s="15"/>
+    </row>
+    <row r="446" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A446" s="16">
+        <v>44381</v>
+      </c>
+      <c r="B446" s="15"/>
+      <c r="C446" s="15"/>
+    </row>
+    <row r="447" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A447" s="16">
+        <v>44382</v>
+      </c>
+      <c r="B447" s="14">
+        <v>82</v>
+      </c>
+      <c r="C447" s="14">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="448" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A448" s="16">
+        <v>44383</v>
+      </c>
+      <c r="B448" s="14">
+        <v>88</v>
+      </c>
+      <c r="C448" s="14">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="449" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A449" s="16">
+        <v>44384</v>
+      </c>
+      <c r="B449" s="14">
+        <v>80</v>
+      </c>
+      <c r="C449" s="14">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="450" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A450" s="16">
+        <v>44385</v>
+      </c>
+      <c r="B450" s="14">
+        <v>72</v>
+      </c>
+      <c r="C450" s="14">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="451" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A451" s="16">
+        <v>44386</v>
+      </c>
+      <c r="B451" s="14">
+        <v>87</v>
+      </c>
+      <c r="C451" s="14">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="452" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A452" s="16">
+        <v>44387</v>
+      </c>
+      <c r="B452" s="15"/>
+      <c r="C452" s="15"/>
+    </row>
+    <row r="453" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A453" s="16">
+        <v>44388</v>
+      </c>
+      <c r="B453" s="15"/>
+      <c r="C453" s="15"/>
+    </row>
+    <row r="454" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A454" s="16">
+        <v>44389</v>
+      </c>
+      <c r="B454" s="14">
+        <v>73</v>
+      </c>
+      <c r="C454" s="14">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="455" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A455" s="16">
+        <v>44390</v>
+      </c>
+      <c r="B455" s="14">
+        <v>86</v>
+      </c>
+      <c r="C455" s="14">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="456" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A456" s="16">
+        <v>44391</v>
+      </c>
+      <c r="B456" s="14">
+        <v>84</v>
+      </c>
+      <c r="C456" s="14">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="457" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A457" s="16">
+        <v>44392</v>
+      </c>
+      <c r="B457" s="14">
+        <v>83</v>
+      </c>
+      <c r="C457" s="14">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="458" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A458" s="16">
+        <v>44393</v>
+      </c>
+      <c r="B458" s="14">
+        <v>86</v>
+      </c>
+      <c r="C458" s="14">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="459" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A459" s="16">
+        <v>44394</v>
+      </c>
+      <c r="B459" s="15"/>
+      <c r="C459" s="15"/>
+    </row>
+    <row r="460" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A460" s="16">
+        <v>44395</v>
+      </c>
+      <c r="B460" s="15"/>
+      <c r="C460" s="15"/>
+    </row>
+    <row r="461" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A461" s="16">
+        <v>44396</v>
+      </c>
+      <c r="B461" s="14">
+        <v>76</v>
+      </c>
+      <c r="C461" s="14">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="462" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A462" s="16">
+        <v>44397</v>
+      </c>
+      <c r="B462" s="14">
+        <v>77</v>
+      </c>
+      <c r="C462" s="14">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="463" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A463" s="16">
+        <v>44398</v>
+      </c>
+      <c r="B463" s="14">
+        <v>76</v>
+      </c>
+      <c r="C463" s="14">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="464" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A464" s="16">
+        <v>44399</v>
+      </c>
+      <c r="B464" s="14">
+        <v>62</v>
+      </c>
+      <c r="C464" s="14">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="465" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A465" s="16">
+        <v>44400</v>
+      </c>
+      <c r="B465" s="14">
+        <v>67</v>
+      </c>
+      <c r="C465" s="14">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="466" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A466" s="16">
+        <v>44401</v>
+      </c>
+      <c r="B466" s="15"/>
+      <c r="C466" s="15"/>
+    </row>
+    <row r="467" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A467" s="16">
+        <v>44402</v>
+      </c>
+      <c r="B467" s="15"/>
+      <c r="C467" s="15"/>
+    </row>
+    <row r="468" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A468" s="16">
+        <v>44403</v>
+      </c>
+      <c r="B468" s="14">
+        <v>55</v>
+      </c>
+      <c r="C468" s="14">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="469" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A469" s="16">
+        <v>44404</v>
+      </c>
+      <c r="B469" s="14">
+        <v>73</v>
+      </c>
+      <c r="C469" s="14">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="470" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A470" s="16">
+        <v>44405</v>
+      </c>
+      <c r="B470" s="14">
+        <v>70</v>
+      </c>
+      <c r="C470" s="14">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="471" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A471" s="16">
+        <v>44406</v>
+      </c>
+      <c r="B471" s="14">
+        <v>79</v>
+      </c>
+      <c r="C471" s="14">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="472" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A472" s="16">
+        <v>44407</v>
+      </c>
+      <c r="B472" s="14">
+        <v>78</v>
+      </c>
+      <c r="C472" s="14">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="473" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A473" s="16">
+        <v>44408</v>
+      </c>
+      <c r="B473" s="15"/>
+      <c r="C473" s="15"/>
+    </row>
+    <row r="474" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A474" s="16">
+        <v>44409</v>
+      </c>
+      <c r="B474" s="15"/>
+      <c r="C474" s="15"/>
+    </row>
+    <row r="475" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A475" s="16">
+        <v>44410</v>
+      </c>
+      <c r="B475" s="14">
+        <v>76</v>
+      </c>
+      <c r="C475" s="14">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="476" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A476" s="16">
+        <v>44411</v>
+      </c>
+      <c r="B476" s="14">
+        <v>77</v>
+      </c>
+      <c r="C476" s="14">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{49EDF5D0-70A4-4A1D-8C48-30A1877FB94E}">
   <dimension ref="A1:M259"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
@@ -16517,7 +21737,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C87164E8-F9F3-4E61-A909-A1B81C48E5A9}">
   <dimension ref="A1:C12"/>
   <sheetViews>
